--- a/Database/AAR_matrix.xlsx
+++ b/Database/AAR_matrix.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Receivers" sheetId="2" r:id="rId2"/>
     <sheet name="Specifications" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Specifications!$A$1:$A$178</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -343,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1875" uniqueCount="125">
   <si>
     <t>C-17</t>
   </si>
@@ -444,9 +447,6 @@
     <t>F/A-18</t>
   </si>
   <si>
-    <t>F35</t>
-  </si>
-  <si>
     <t>P-8</t>
   </si>
   <si>
@@ -486,9 +486,6 @@
     <t>Belgium</t>
   </si>
   <si>
-    <t>KC-30A is not cleared to refuel BAF F-16B</t>
-  </si>
-  <si>
     <t xml:space="preserve">K </t>
   </si>
   <si>
@@ -504,16 +501,10 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>KC-30A is not cleared to refuel RNLAF F-16B</t>
-  </si>
-  <si>
     <t>Portugal</t>
   </si>
   <si>
     <t>South Korea</t>
-  </si>
-  <si>
-    <t>KC-30A is not cleared to refuel PoAF F-16B</t>
   </si>
   <si>
     <t>D+</t>
@@ -525,12 +516,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>KC-30A is not cleared to refuel RTAF F-16B</t>
-  </si>
-  <si>
-    <t>KC-30A is not cleared to refuel USAF F-16D</t>
-  </si>
-  <si>
     <t>F-2</t>
   </si>
   <si>
@@ -540,19 +525,10 @@
     <t>A-330 MRTT</t>
   </si>
   <si>
-    <t>USN</t>
-  </si>
-  <si>
     <t>boom_pod</t>
   </si>
   <si>
     <t>P</t>
-  </si>
-  <si>
-    <t>1500 ft</t>
-  </si>
-  <si>
-    <t>mininimum altitude in feet</t>
   </si>
   <si>
     <t>H</t>
@@ -693,9 +669,6 @@
     <t>CC-150</t>
   </si>
   <si>
-    <t>KDC-10A</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -717,12 +690,6 @@
     <t>given in 1500 ft</t>
   </si>
   <si>
-    <t>linear increase of minimum speed from 180 KCAS at FL200 to 255 KCAS at FL350</t>
-  </si>
-  <si>
-    <t>linear increase of minimum speed from 200 KCAS at FL240 to 255 KCAS at FL350</t>
-  </si>
-  <si>
     <t>FL300-FL350 -&gt; Airspeed: 250 KIAS</t>
   </si>
   <si>
@@ -739,6 +706,21 @@
   </si>
   <si>
     <t>July 2025</t>
+  </si>
+  <si>
+    <t>1500 ft AGL</t>
+  </si>
+  <si>
+    <t>mininimum altitude in feet above ground level</t>
+  </si>
+  <si>
+    <t>mininimum altitude in feet  above ground level</t>
+  </si>
+  <si>
+    <t>December 2025</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -829,18 +811,369 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="102">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1538,7 +1871,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1762,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2881,10 +3214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R178"/>
+  <dimension ref="A1:R204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2923,13 +3256,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -2941,10 +3274,10 @@
         <v>8</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>6</v>
@@ -2970,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -2979,10 +3312,10 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -2998,6 +3331,9 @@
       </c>
       <c r="O2">
         <v>285</v>
+      </c>
+      <c r="P2">
+        <v>0.8</v>
       </c>
       <c r="Q2">
         <f>3600*2.20462</f>
@@ -3021,7 +3357,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -3030,10 +3366,10 @@
         <v>3</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -3049,6 +3385,9 @@
       </c>
       <c r="O3">
         <v>290</v>
+      </c>
+      <c r="P3">
+        <v>0.72</v>
       </c>
       <c r="Q3">
         <f>1900*2.20462</f>
@@ -3072,7 +3411,7 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -3081,16 +3420,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="M4">
         <v>350</v>
@@ -3100,13 +3439,16 @@
       </c>
       <c r="O4">
         <v>300</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
       </c>
       <c r="Q4">
         <f>1200 * 2.20462</f>
         <v>2645.5439999999999</v>
       </c>
       <c r="R4" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3126,7 +3468,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -3135,16 +3477,16 @@
         <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="M5">
         <v>350</v>
@@ -3154,13 +3496,16 @@
       </c>
       <c r="O5">
         <v>300</v>
+      </c>
+      <c r="P5">
+        <v>0.8</v>
       </c>
       <c r="Q5">
         <f>1200 * 2.20462</f>
         <v>2645.5439999999999</v>
       </c>
       <c r="R5" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3177,10 +3522,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3189,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
         <v>22</v>
@@ -3208,6 +3553,9 @@
       </c>
       <c r="O6">
         <v>325</v>
+      </c>
+      <c r="P6">
+        <v>0.84</v>
       </c>
       <c r="Q6">
         <f>1000*2.20462</f>
@@ -3240,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
         <v>22</v>
@@ -3259,6 +3607,9 @@
       </c>
       <c r="O7">
         <v>290</v>
+      </c>
+      <c r="P7">
+        <v>0.8</v>
       </c>
       <c r="Q7">
         <f>3600*2.20462</f>
@@ -3279,10 +3630,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -3291,10 +3642,10 @@
         <v>3</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
@@ -3310,6 +3661,9 @@
       </c>
       <c r="O8">
         <v>300</v>
+      </c>
+      <c r="P8">
+        <v>0.76</v>
       </c>
       <c r="Q8">
         <f>1900*2.20462</f>
@@ -3342,10 +3696,10 @@
         <v>3</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -3361,6 +3715,9 @@
       </c>
       <c r="O9">
         <v>315</v>
+      </c>
+      <c r="P9">
+        <v>0.8</v>
       </c>
       <c r="Q9">
         <f>3600*2.20462</f>
@@ -3384,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10">
         <v>3</v>
@@ -3393,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
@@ -3412,6 +3769,9 @@
       </c>
       <c r="O10">
         <v>240</v>
+      </c>
+      <c r="P10">
+        <v>0.46</v>
       </c>
       <c r="Q10">
         <f>1200*2.20462</f>
@@ -3429,25 +3789,25 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -3463,6 +3823,9 @@
       </c>
       <c r="O11">
         <v>300</v>
+      </c>
+      <c r="P11">
+        <v>0.8</v>
       </c>
       <c r="Q11">
         <f>1400*2.20462</f>
@@ -3480,25 +3843,25 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -3514,6 +3877,9 @@
       </c>
       <c r="O12">
         <v>300</v>
+      </c>
+      <c r="P12">
+        <v>0.77</v>
       </c>
       <c r="Q12">
         <f>1400*2.20462</f>
@@ -3531,25 +3897,25 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" t="s">
         <v>22</v>
@@ -3565,13 +3931,16 @@
       </c>
       <c r="O13">
         <v>290</v>
+      </c>
+      <c r="P13">
+        <v>0.8</v>
       </c>
       <c r="Q13">
         <f>1400*2.20462</f>
         <v>3086.4679999999998</v>
       </c>
       <c r="R13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3585,25 +3954,25 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
         <v>22</v>
@@ -3619,13 +3988,16 @@
       </c>
       <c r="O14">
         <v>290</v>
+      </c>
+      <c r="P14">
+        <v>0.78</v>
       </c>
       <c r="Q14">
         <f>1400*2.20462</f>
         <v>3086.4679999999998</v>
       </c>
       <c r="R14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3639,25 +4011,25 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
         <v>22</v>
@@ -3673,14 +4045,14 @@
       </c>
       <c r="O15">
         <v>315</v>
+      </c>
+      <c r="P15">
+        <v>0.76</v>
       </c>
       <c r="Q15">
         <f t="shared" ref="Q15:Q29" si="0">1400*2.20462</f>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R15" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
@@ -3693,25 +4065,25 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
         <v>22</v>
@@ -3727,16 +4099,16 @@
       </c>
       <c r="O16">
         <v>315</v>
+      </c>
+      <c r="P16">
+        <v>0.76</v>
       </c>
       <c r="Q16">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3747,7 +4119,7 @@
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
         <v>30</v>
@@ -3759,13 +4131,13 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
         <v>22</v>
@@ -3781,13 +4153,16 @@
       </c>
       <c r="O17">
         <v>315</v>
+      </c>
+      <c r="P17">
+        <v>0.76</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3798,25 +4173,25 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
         <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
         <v>22</v>
@@ -3832,13 +4207,16 @@
       </c>
       <c r="O18">
         <v>315</v>
+      </c>
+      <c r="P18">
+        <v>0.76</v>
       </c>
       <c r="Q18">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -3849,25 +4227,25 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K19" t="s">
         <v>22</v>
@@ -3883,13 +4261,16 @@
       </c>
       <c r="O19">
         <v>315</v>
+      </c>
+      <c r="P19">
+        <v>0.76</v>
       </c>
       <c r="Q19">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3900,25 +4281,25 @@
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E20" t="s">
         <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
         <v>22</v>
@@ -3934,16 +4315,16 @@
       </c>
       <c r="O20">
         <v>315</v>
+      </c>
+      <c r="P20">
+        <v>0.76</v>
       </c>
       <c r="Q20">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -3954,25 +4335,25 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" t="s">
         <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
         <v>22</v>
@@ -3988,16 +4369,16 @@
       </c>
       <c r="O21">
         <v>315</v>
+      </c>
+      <c r="P21">
+        <v>0.76</v>
       </c>
       <c r="Q21">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -4008,25 +4389,25 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G22">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
         <v>22</v>
@@ -4042,13 +4423,16 @@
       </c>
       <c r="O22">
         <v>315</v>
+      </c>
+      <c r="P22">
+        <v>0.76</v>
       </c>
       <c r="Q22">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -4059,25 +4443,25 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
         <v>22</v>
@@ -4093,13 +4477,16 @@
       </c>
       <c r="O23">
         <v>315</v>
+      </c>
+      <c r="P23">
+        <v>0.76</v>
       </c>
       <c r="Q23">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -4110,7 +4497,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E24" t="s">
         <v>30</v>
@@ -4122,13 +4509,13 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
         <v>22</v>
@@ -4144,13 +4531,16 @@
       </c>
       <c r="O24">
         <v>315</v>
+      </c>
+      <c r="P24">
+        <v>0.76</v>
       </c>
       <c r="Q24">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -4161,25 +4551,25 @@
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
         <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25" t="s">
         <v>22</v>
@@ -4195,13 +4585,16 @@
       </c>
       <c r="O25">
         <v>315</v>
+      </c>
+      <c r="P25">
+        <v>0.76</v>
       </c>
       <c r="Q25">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -4212,25 +4605,25 @@
         <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26">
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
         <v>22</v>
@@ -4246,16 +4639,16 @@
       </c>
       <c r="O26">
         <v>315</v>
+      </c>
+      <c r="P26">
+        <v>0.76</v>
       </c>
       <c r="Q26">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -4272,19 +4665,19 @@
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
         <v>22</v>
@@ -4300,16 +4693,16 @@
       </c>
       <c r="O27">
         <v>315</v>
+      </c>
+      <c r="P27">
+        <v>0.76</v>
       </c>
       <c r="Q27">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
-      <c r="R27" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -4320,25 +4713,25 @@
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
         <v>22</v>
@@ -4354,13 +4747,16 @@
       </c>
       <c r="O28">
         <v>315</v>
+      </c>
+      <c r="P28">
+        <v>0.76</v>
       </c>
       <c r="Q28">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -4371,10 +4767,10 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>22</v>
@@ -4383,13 +4779,13 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
         <v>22</v>
@@ -4405,13 +4801,16 @@
       </c>
       <c r="O29">
         <v>315</v>
+      </c>
+      <c r="P29">
+        <v>0.76</v>
       </c>
       <c r="Q29">
         <f t="shared" si="0"/>
         <v>3086.4679999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -4428,19 +4827,19 @@
         <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K30" t="s">
         <v>22</v>
@@ -4456,13 +4855,16 @@
       </c>
       <c r="O30">
         <v>315</v>
+      </c>
+      <c r="P30">
+        <v>0.82</v>
       </c>
       <c r="Q30">
         <f>800*2.20462</f>
         <v>1763.6959999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -4473,25 +4875,25 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K31" t="s">
         <v>22</v>
@@ -4507,13 +4909,16 @@
       </c>
       <c r="O31">
         <v>325</v>
+      </c>
+      <c r="P31">
+        <v>0.84</v>
       </c>
       <c r="Q31">
         <f t="shared" ref="Q31:Q37" si="1">1000*2.20462</f>
         <v>2204.62</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -4524,25 +4929,25 @@
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
         <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G32">
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K32" t="s">
         <v>22</v>
@@ -4558,6 +4963,9 @@
       </c>
       <c r="O32">
         <v>325</v>
+      </c>
+      <c r="P32">
+        <v>0.84</v>
       </c>
       <c r="Q32">
         <f t="shared" si="1"/>
@@ -4575,25 +4983,25 @@
         <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33">
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -4609,6 +5017,9 @@
       </c>
       <c r="O33">
         <v>325</v>
+      </c>
+      <c r="P33">
+        <v>0.84</v>
       </c>
       <c r="Q33">
         <f t="shared" si="1"/>
@@ -4626,25 +5037,25 @@
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
         <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -4660,6 +5071,9 @@
       </c>
       <c r="O34">
         <v>325</v>
+      </c>
+      <c r="P34">
+        <v>0.84</v>
       </c>
       <c r="Q34">
         <f t="shared" si="1"/>
@@ -4677,25 +5091,25 @@
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
         <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s">
         <v>22</v>
@@ -4711,6 +5125,9 @@
       </c>
       <c r="O35">
         <v>325</v>
+      </c>
+      <c r="P35">
+        <v>0.84</v>
       </c>
       <c r="Q35">
         <f t="shared" si="1"/>
@@ -4728,25 +5145,25 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E36" t="s">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K36" t="s">
         <v>22</v>
@@ -4762,6 +5179,9 @@
       </c>
       <c r="O36">
         <v>325</v>
+      </c>
+      <c r="P36">
+        <v>0.84</v>
       </c>
       <c r="Q36">
         <f t="shared" si="1"/>
@@ -4785,19 +5205,19 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K37" t="s">
         <v>22</v>
@@ -4813,6 +5233,9 @@
       </c>
       <c r="O37">
         <v>325</v>
+      </c>
+      <c r="P37">
+        <v>0.84</v>
       </c>
       <c r="Q37">
         <f t="shared" si="1"/>
@@ -4830,25 +5253,25 @@
         <v>11</v>
       </c>
       <c r="D38" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
         <v>58</v>
       </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>64</v>
-      </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
         <v>22</v>
@@ -4864,6 +5287,9 @@
       </c>
       <c r="O38">
         <v>290</v>
+      </c>
+      <c r="P38">
+        <v>0.8</v>
       </c>
       <c r="Q38">
         <f>3600*2.20462</f>
@@ -4881,25 +5307,25 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
         <v>22</v>
@@ -4915,6 +5341,9 @@
       </c>
       <c r="O39">
         <v>300</v>
+      </c>
+      <c r="P39">
+        <v>0.76</v>
       </c>
       <c r="Q39">
         <f>1900*2.20462</f>
@@ -4938,19 +5367,19 @@
         <v>28</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K40" t="s">
         <v>22</v>
@@ -4989,19 +5418,19 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K41" t="s">
         <v>22</v>
@@ -5040,19 +5469,19 @@
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42">
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -5068,6 +5497,9 @@
       </c>
       <c r="O42">
         <v>285</v>
+      </c>
+      <c r="P42">
+        <v>0.8</v>
       </c>
       <c r="Q42">
         <f>3600 *2.20462</f>
@@ -5085,25 +5517,25 @@
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" t="s">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43">
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s">
         <v>22</v>
@@ -5119,6 +5551,9 @@
       </c>
       <c r="O43">
         <v>285</v>
+      </c>
+      <c r="P43">
+        <v>0.8</v>
       </c>
       <c r="Q43">
         <f>3600 *2.20462</f>
@@ -5130,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
@@ -5142,16 +5577,19 @@
         <v>0</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>3</v>
       </c>
+      <c r="I44" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="J44" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K44" t="s">
         <v>22</v>
@@ -5171,13 +5609,13 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
@@ -5186,16 +5624,19 @@
         <v>0</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>3</v>
       </c>
+      <c r="I45" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="J45" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K45" t="s">
         <v>22</v>
@@ -5224,28 +5665,28 @@
         <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G46">
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K46" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L46">
         <v>150</v>
@@ -5258,6 +5699,9 @@
       </c>
       <c r="O46">
         <v>300</v>
+      </c>
+      <c r="P46">
+        <v>0.8</v>
       </c>
       <c r="Q46">
         <f t="shared" ref="Q46:Q51" si="2">1100*2.20462</f>
@@ -5275,28 +5719,28 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G47">
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L47">
         <v>150</v>
@@ -5309,6 +5753,9 @@
       </c>
       <c r="O47">
         <v>300</v>
+      </c>
+      <c r="P47">
+        <v>0.8</v>
       </c>
       <c r="Q47">
         <f t="shared" si="2"/>
@@ -5326,28 +5773,28 @@
         <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>20</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L48">
         <v>150</v>
@@ -5360,6 +5807,9 @@
       </c>
       <c r="O48">
         <v>300</v>
+      </c>
+      <c r="P48">
+        <v>0.8</v>
       </c>
       <c r="Q48">
         <f t="shared" si="2"/>
@@ -5377,28 +5827,28 @@
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G49">
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K49" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L49">
         <v>150</v>
@@ -5411,6 +5861,9 @@
       </c>
       <c r="O49">
         <v>300</v>
+      </c>
+      <c r="P49">
+        <v>0.8</v>
       </c>
       <c r="Q49">
         <f t="shared" si="2"/>
@@ -5428,28 +5881,28 @@
         <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L50">
         <v>150</v>
@@ -5462,6 +5915,9 @@
       </c>
       <c r="O50">
         <v>300</v>
+      </c>
+      <c r="P50">
+        <v>0.8</v>
       </c>
       <c r="Q50">
         <f t="shared" si="2"/>
@@ -5479,7 +5935,7 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>32</v>
@@ -5491,16 +5947,16 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L51">
         <v>150</v>
@@ -5513,6 +5969,9 @@
       </c>
       <c r="O51">
         <v>300</v>
+      </c>
+      <c r="P51">
+        <v>0.8</v>
       </c>
       <c r="Q51">
         <f t="shared" si="2"/>
@@ -5530,28 +5989,28 @@
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52">
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L52">
         <v>150</v>
@@ -5564,6 +6023,9 @@
       </c>
       <c r="O52">
         <v>300</v>
+      </c>
+      <c r="P52">
+        <v>0.8</v>
       </c>
       <c r="Q52">
         <f t="shared" ref="Q52:Q56" si="3">1100*2.20462</f>
@@ -5581,10 +6043,10 @@
         <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F53" t="s">
         <v>22</v>
@@ -5593,16 +6055,16 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K53" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L53">
         <v>150</v>
@@ -5615,6 +6077,9 @@
       </c>
       <c r="O53">
         <v>300</v>
+      </c>
+      <c r="P53">
+        <v>0.8</v>
       </c>
       <c r="Q53">
         <f t="shared" si="3"/>
@@ -5632,7 +6097,7 @@
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
         <v>32</v>
@@ -5644,16 +6109,16 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L54">
         <v>150</v>
@@ -5666,6 +6131,9 @@
       </c>
       <c r="O54">
         <v>300</v>
+      </c>
+      <c r="P54">
+        <v>0.8</v>
       </c>
       <c r="Q54">
         <f t="shared" si="3"/>
@@ -5683,28 +6151,28 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K55" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L55">
         <v>150</v>
@@ -5717,6 +6185,9 @@
       </c>
       <c r="O55">
         <v>300</v>
+      </c>
+      <c r="P55">
+        <v>0.8</v>
       </c>
       <c r="Q55">
         <f t="shared" si="3"/>
@@ -5734,7 +6205,7 @@
         <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E56" t="s">
         <v>32</v>
@@ -5746,16 +6217,16 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K56" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L56">
         <v>150</v>
@@ -5768,6 +6239,9 @@
       </c>
       <c r="O56">
         <v>300</v>
+      </c>
+      <c r="P56">
+        <v>0.8</v>
       </c>
       <c r="Q56">
         <f t="shared" si="3"/>
@@ -5785,28 +6259,28 @@
         <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E57" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L57">
         <v>150</v>
@@ -5819,6 +6293,9 @@
       </c>
       <c r="O57">
         <v>300</v>
+      </c>
+      <c r="P57">
+        <v>0.8</v>
       </c>
       <c r="Q57">
         <f t="shared" ref="Q57:Q62" si="4">1100*2.20462</f>
@@ -5836,10 +6313,10 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E58" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F58" t="s">
         <v>22</v>
@@ -5848,16 +6325,16 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K58" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L58">
         <v>150</v>
@@ -5870,6 +6347,9 @@
       </c>
       <c r="O58">
         <v>300</v>
+      </c>
+      <c r="P58">
+        <v>0.8</v>
       </c>
       <c r="Q58">
         <f t="shared" si="4"/>
@@ -5887,28 +6367,28 @@
         <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G59">
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K59" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L59">
         <v>20</v>
@@ -5938,28 +6418,28 @@
         <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G60">
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K60" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L60">
         <v>20</v>
@@ -5989,28 +6469,28 @@
         <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G61">
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K61" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L61">
         <v>20</v>
@@ -6040,28 +6520,28 @@
         <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G62">
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L62">
         <v>20</v>
@@ -6091,7 +6571,7 @@
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>21</v>
@@ -6103,16 +6583,16 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K63" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L63">
         <v>150</v>
@@ -6142,7 +6622,7 @@
         <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E64" t="s">
         <v>21</v>
@@ -6154,16 +6634,16 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K64" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L64">
         <v>150</v>
@@ -6193,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E65" t="s">
         <v>21</v>
@@ -6205,16 +6685,16 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K65" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L65">
         <v>150</v>
@@ -6244,7 +6724,7 @@
         <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>21</v>
@@ -6256,16 +6736,16 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L66">
         <v>150</v>
@@ -6295,7 +6775,7 @@
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E67" t="s">
         <v>21</v>
@@ -6307,16 +6787,16 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K67" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L67">
         <v>150</v>
@@ -6346,28 +6826,28 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
         <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L68">
         <v>150</v>
@@ -6397,28 +6877,28 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K69" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L69">
         <v>150</v>
@@ -6448,28 +6928,28 @@
         <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E70" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70">
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K70" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L70">
         <v>50</v>
@@ -6499,28 +6979,28 @@
         <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E71" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G71">
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K71" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L71">
         <v>50</v>
@@ -6550,10 +7030,10 @@
         <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E72" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F72" t="s">
         <v>23</v>
@@ -6562,16 +7042,16 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K72" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L72">
         <v>50</v>
@@ -6601,10 +7081,10 @@
         <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E73" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F73" t="s">
         <v>23</v>
@@ -6613,16 +7093,16 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K73" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L73">
         <v>50</v>
@@ -6652,10 +7132,10 @@
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E74" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F74" t="s">
         <v>22</v>
@@ -6664,16 +7144,16 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K74" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L74">
         <v>100</v>
@@ -6703,28 +7183,28 @@
         <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G75">
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K75" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L75">
         <v>100</v>
@@ -6754,28 +7234,28 @@
         <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K76" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L76">
         <v>100</v>
@@ -6805,28 +7285,28 @@
         <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E77" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F77" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G77">
         <v>3</v>
       </c>
       <c r="H77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K77" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L77">
         <v>100</v>
@@ -6856,28 +7336,28 @@
         <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K78" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L78">
         <v>100</v>
@@ -6907,28 +7387,28 @@
         <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K79" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L79">
         <v>100</v>
@@ -6958,28 +7438,28 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E80" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G80">
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K80" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L80">
         <v>100</v>
@@ -7003,10 +7483,10 @@
         <v>1</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
         <v>2</v>
@@ -7015,19 +7495,19 @@
         <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>3</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K81" t="s">
         <v>22</v>
@@ -7047,10 +7527,10 @@
     </row>
     <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
         <v>22</v>
@@ -7062,19 +7542,19 @@
         <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K82" t="s">
         <v>22</v>
@@ -7094,13 +7574,13 @@
     </row>
     <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -7109,22 +7589,22 @@
         <v>32</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K83" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L83">
         <v>150</v>
@@ -7139,18 +7619,18 @@
         <v>270</v>
       </c>
       <c r="R83" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D84" t="s">
         <v>2</v>
@@ -7159,22 +7639,22 @@
         <v>20</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H84">
         <v>1</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K84" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L84">
         <v>150</v>
@@ -7189,12 +7669,12 @@
         <v>270</v>
       </c>
       <c r="R84" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -7209,19 +7689,19 @@
         <v>0</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K85" t="s">
         <v>22</v>
@@ -7238,16 +7718,19 @@
       <c r="O85">
         <v>285</v>
       </c>
+      <c r="P85">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
       </c>
       <c r="C86" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D86" t="s">
         <v>2</v>
@@ -7256,19 +7739,19 @@
         <v>0</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K86" t="s">
         <v>22</v>
@@ -7285,16 +7768,19 @@
       <c r="O86">
         <v>285</v>
       </c>
+      <c r="P86">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -7303,19 +7789,19 @@
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>3</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K87" t="s">
         <v>22</v>
@@ -7332,16 +7818,19 @@
       <c r="O87">
         <v>285</v>
       </c>
+      <c r="P87">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D88" t="s">
         <v>2</v>
@@ -7350,19 +7839,19 @@
         <v>0</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
-      </c>
-      <c r="G88" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
       </c>
       <c r="H88">
         <v>3</v>
       </c>
-      <c r="I88" s="5" t="s">
-        <v>36</v>
+      <c r="I88" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K88" t="s">
         <v>22</v>
@@ -7378,6 +7867,12 @@
       </c>
       <c r="O88">
         <v>285</v>
+      </c>
+      <c r="P88">
+        <v>0.8</v>
+      </c>
+      <c r="Q88">
+        <v>7500</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -7385,10 +7880,10 @@
         <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
         <v>2</v>
@@ -7397,19 +7892,19 @@
         <v>0</v>
       </c>
       <c r="F89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89">
         <v>3</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K89" t="s">
         <v>22</v>
@@ -7429,13 +7924,13 @@
     </row>
     <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B90" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D90" t="s">
         <v>2</v>
@@ -7444,19 +7939,19 @@
         <v>0</v>
       </c>
       <c r="F90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K90" t="s">
         <v>22</v>
@@ -7479,10 +7974,10 @@
         <v>1</v>
       </c>
       <c r="B91" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
@@ -7491,19 +7986,19 @@
         <v>0</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K91" t="s">
         <v>22</v>
@@ -7526,10 +8021,10 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
         <v>2</v>
@@ -7538,19 +8033,19 @@
         <v>0</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K92" t="s">
         <v>22</v>
@@ -7570,7 +8065,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -7585,19 +8080,19 @@
         <v>19</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K93" t="s">
         <v>22</v>
@@ -7614,16 +8109,19 @@
       <c r="O93">
         <v>290</v>
       </c>
+      <c r="P93">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="94" spans="1:18">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D94" t="s">
         <v>2</v>
@@ -7632,19 +8130,19 @@
         <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K94" t="s">
         <v>22</v>
@@ -7661,16 +8159,19 @@
       <c r="O94">
         <v>290</v>
       </c>
+      <c r="P94">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="95" spans="1:18">
       <c r="A95" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D95" t="s">
         <v>2</v>
@@ -7679,19 +8180,19 @@
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K95" t="s">
         <v>22</v>
@@ -7708,16 +8209,19 @@
       <c r="O95">
         <v>290</v>
       </c>
+      <c r="P95">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="96" spans="1:18">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
         <v>2</v>
@@ -7726,19 +8230,19 @@
         <v>19</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
-      </c>
-      <c r="G96" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
       </c>
       <c r="H96">
         <v>3</v>
       </c>
-      <c r="I96" s="5" t="s">
-        <v>36</v>
+      <c r="I96" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K96" t="s">
         <v>22</v>
@@ -7754,6 +8258,12 @@
       </c>
       <c r="O96">
         <v>290</v>
+      </c>
+      <c r="P96">
+        <v>0.72</v>
+      </c>
+      <c r="Q96">
+        <v>4200</v>
       </c>
     </row>
     <row r="97" spans="1:15">
@@ -7761,10 +8271,10 @@
         <v>1</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
@@ -7773,19 +8283,19 @@
         <v>19</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>3</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K97" t="s">
         <v>22</v>
@@ -7805,13 +8315,13 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
@@ -7820,19 +8330,19 @@
         <v>19</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>3</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K98" t="s">
         <v>22</v>
@@ -7855,10 +8365,10 @@
         <v>1</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
@@ -7867,19 +8377,19 @@
         <v>19</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>3</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K99" t="s">
         <v>22</v>
@@ -7899,13 +8409,13 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
@@ -7914,19 +8424,19 @@
         <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>3</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K100" t="s">
         <v>22</v>
@@ -7946,13 +8456,13 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D101" t="s">
         <v>2</v>
@@ -7961,19 +8471,19 @@
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H101">
         <v>3</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K101" t="s">
         <v>22</v>
@@ -7993,13 +8503,13 @@
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
@@ -8008,22 +8518,22 @@
         <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102">
         <v>3</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K102" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L102">
         <v>100</v>
@@ -8040,13 +8550,13 @@
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D103" t="s">
         <v>2</v>
@@ -8055,22 +8565,22 @@
         <v>20</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>3</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K103" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L103">
         <v>100</v>
@@ -8090,10 +8600,10 @@
         <v>1</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
         <v>2</v>
@@ -8102,22 +8612,22 @@
         <v>32</v>
       </c>
       <c r="F104" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K104" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L104">
         <v>100</v>
@@ -8134,13 +8644,13 @@
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
@@ -8149,22 +8659,22 @@
         <v>32</v>
       </c>
       <c r="F105" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K105" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L105">
         <v>50</v>
@@ -8184,10 +8694,10 @@
         <v>1</v>
       </c>
       <c r="B106" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
         <v>2</v>
@@ -8196,22 +8706,22 @@
         <v>20</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>3</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K106" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L106">
         <v>100</v>
@@ -8228,13 +8738,13 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B107" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="D107" t="s">
         <v>2</v>
@@ -8243,22 +8753,22 @@
         <v>20</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>3</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K107" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L107">
         <v>50</v>
@@ -8278,10 +8788,10 @@
         <v>1</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
         <v>2</v>
@@ -8290,19 +8800,19 @@
         <v>32</v>
       </c>
       <c r="F108" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>3</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K108" t="s">
         <v>22</v>
@@ -8325,10 +8835,10 @@
         <v>1</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -8337,19 +8847,19 @@
         <v>20</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K109" t="s">
         <v>22</v>
@@ -8369,13 +8879,13 @@
     </row>
     <row r="110" spans="1:15">
       <c r="A110" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B110" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D110" t="s">
         <v>2</v>
@@ -8384,22 +8894,22 @@
         <v>32</v>
       </c>
       <c r="F110" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L110">
         <v>50</v>
@@ -8416,13 +8926,13 @@
     </row>
     <row r="111" spans="1:15">
       <c r="A111" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
@@ -8431,22 +8941,22 @@
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K111" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L111">
         <v>50</v>
@@ -8463,13 +8973,13 @@
     </row>
     <row r="112" spans="1:15">
       <c r="A112" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B112" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -8478,22 +8988,22 @@
         <v>20</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K112" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L112">
         <v>50</v>
@@ -8510,13 +9020,13 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B113" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
@@ -8525,22 +9035,22 @@
         <v>20</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
         <v>3</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K113" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L113">
         <v>50</v>
@@ -8557,7 +9067,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -8572,22 +9082,22 @@
         <v>20</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>3</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K114" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L114">
         <v>15</v>
@@ -8601,19 +9111,22 @@
       <c r="O114">
         <v>300</v>
       </c>
+      <c r="P114">
+        <v>0.8</v>
+      </c>
       <c r="R114" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:18">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
       </c>
       <c r="C115" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D115" t="s">
         <v>2</v>
@@ -8622,22 +9135,22 @@
         <v>20</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>3</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K115" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L115">
         <v>15</v>
@@ -8651,19 +9164,22 @@
       <c r="O115">
         <v>300</v>
       </c>
+      <c r="P115">
+        <v>0.8</v>
+      </c>
       <c r="R115" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:18">
       <c r="A116" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D116" t="s">
         <v>2</v>
@@ -8672,22 +9188,22 @@
         <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>3</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K116" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L116">
         <v>15</v>
@@ -8701,19 +9217,22 @@
       <c r="O116">
         <v>300</v>
       </c>
+      <c r="P116">
+        <v>0.8</v>
+      </c>
       <c r="R116" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="117" spans="1:18">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D117" t="s">
         <v>2</v>
@@ -8722,25 +9241,25 @@
         <v>20</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
-      </c>
-      <c r="G117" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
       </c>
       <c r="H117">
         <v>3</v>
       </c>
-      <c r="I117" s="5" t="s">
-        <v>36</v>
+      <c r="I117" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K117" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L117">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="M117">
         <v>350</v>
@@ -8751,19 +9270,22 @@
       <c r="O117">
         <v>300</v>
       </c>
-      <c r="R117" t="s">
-        <v>123</v>
+      <c r="P117">
+        <v>0.8</v>
+      </c>
+      <c r="Q117">
+        <v>2425</v>
       </c>
     </row>
     <row r="118" spans="1:18">
       <c r="A118" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D118" t="s">
         <v>2</v>
@@ -8772,22 +9294,22 @@
         <v>20</v>
       </c>
       <c r="F118" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H118">
         <v>3</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K118" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L118">
         <v>15</v>
@@ -8801,13 +9323,16 @@
       <c r="O118">
         <v>300</v>
       </c>
+      <c r="P118">
+        <v>0.8</v>
+      </c>
       <c r="R118" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:18">
       <c r="A119" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -8822,22 +9347,22 @@
         <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H119">
         <v>3</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K119" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L119">
         <v>15</v>
@@ -8851,19 +9376,22 @@
       <c r="O119">
         <v>300</v>
       </c>
+      <c r="P119">
+        <v>0.8</v>
+      </c>
       <c r="R119" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:18">
       <c r="A120" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D120" t="s">
         <v>2</v>
@@ -8872,22 +9400,22 @@
         <v>32</v>
       </c>
       <c r="F120" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K120" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L120">
         <v>15</v>
@@ -8901,19 +9429,22 @@
       <c r="O120">
         <v>300</v>
       </c>
+      <c r="P120">
+        <v>0.8</v>
+      </c>
       <c r="R120" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:18">
       <c r="A121" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
         <v>2</v>
@@ -8922,22 +9453,22 @@
         <v>32</v>
       </c>
       <c r="F121" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K121" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L121">
         <v>15</v>
@@ -8951,19 +9482,22 @@
       <c r="O121">
         <v>300</v>
       </c>
+      <c r="P121">
+        <v>0.8</v>
+      </c>
       <c r="R121" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" spans="1:18">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
@@ -8972,25 +9506,25 @@
         <v>32</v>
       </c>
       <c r="F122" t="s">
-        <v>80</v>
-      </c>
-      <c r="G122" t="s">
-        <v>36</v>
+        <v>71</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
       </c>
       <c r="H122">
         <v>3</v>
       </c>
-      <c r="I122" s="5" t="s">
-        <v>36</v>
+      <c r="I122" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K122" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L122">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="M122">
         <v>350</v>
@@ -9001,19 +9535,22 @@
       <c r="O122">
         <v>300</v>
       </c>
-      <c r="R122" t="s">
-        <v>123</v>
+      <c r="P122">
+        <v>0.8</v>
+      </c>
+      <c r="Q122">
+        <v>2425</v>
       </c>
     </row>
     <row r="123" spans="1:18">
       <c r="A123" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D123" t="s">
         <v>2</v>
@@ -9022,22 +9559,22 @@
         <v>32</v>
       </c>
       <c r="F123" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>3</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K123" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L123">
         <v>15</v>
@@ -9051,8 +9588,11 @@
       <c r="O123">
         <v>300</v>
       </c>
+      <c r="P123">
+        <v>0.8</v>
+      </c>
       <c r="R123" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -9060,10 +9600,10 @@
         <v>1</v>
       </c>
       <c r="B124" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D124" t="s">
         <v>2</v>
@@ -9072,19 +9612,19 @@
         <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>3</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K124" t="s">
         <v>22</v>
@@ -9104,13 +9644,13 @@
     </row>
     <row r="125" spans="1:18">
       <c r="A125" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B125" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C125" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D125" t="s">
         <v>2</v>
@@ -9119,19 +9659,19 @@
         <v>32</v>
       </c>
       <c r="F125" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
         <v>3</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K125" t="s">
         <v>22</v>
@@ -9154,10 +9694,10 @@
         <v>1</v>
       </c>
       <c r="B126" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C126" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
@@ -9166,19 +9706,19 @@
         <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>3</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K126" t="s">
         <v>22</v>
@@ -9198,13 +9738,13 @@
     </row>
     <row r="127" spans="1:18">
       <c r="A127" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D127" t="s">
         <v>2</v>
@@ -9213,19 +9753,19 @@
         <v>32</v>
       </c>
       <c r="F127" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>3</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K127" t="s">
         <v>22</v>
@@ -9245,13 +9785,13 @@
     </row>
     <row r="128" spans="1:18">
       <c r="A128" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B128" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C128" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D128" t="s">
         <v>2</v>
@@ -9260,19 +9800,19 @@
         <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>3</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K128" t="s">
         <v>22</v>
@@ -9290,15 +9830,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="129" spans="1:18">
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>1</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C129" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D129" t="s">
         <v>2</v>
@@ -9307,22 +9847,22 @@
         <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K129" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L129">
         <v>100</v>
@@ -9337,15 +9877,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:18">
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C130" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D130" t="s">
         <v>2</v>
@@ -9354,22 +9894,22 @@
         <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K130" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L130">
         <v>50</v>
@@ -9384,15 +9924,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="131" spans="1:18">
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C131" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D131" t="s">
         <v>2</v>
@@ -9401,22 +9941,22 @@
         <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K131" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L131">
         <v>100</v>
@@ -9431,15 +9971,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="1:18">
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C132" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D132" t="s">
         <v>2</v>
@@ -9448,22 +9988,22 @@
         <v>32</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>3</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K132" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L132">
         <v>100</v>
@@ -9478,15 +10018,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="133" spans="1:18">
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>1</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C133" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D133" t="s">
         <v>2</v>
@@ -9495,19 +10035,19 @@
         <v>20</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>3</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K133" t="s">
         <v>22</v>
@@ -9525,15 +10065,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="134" spans="1:18">
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B134" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C134" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D134" t="s">
         <v>2</v>
@@ -9542,19 +10082,19 @@
         <v>20</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>3</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K134" t="s">
         <v>22</v>
@@ -9572,15 +10112,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:18">
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>1</v>
       </c>
       <c r="B135" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D135" t="s">
         <v>2</v>
@@ -9589,19 +10129,19 @@
         <v>20</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>3</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K135" t="s">
         <v>22</v>
@@ -9619,15 +10159,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="136" spans="1:18">
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C136" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
         <v>2</v>
@@ -9636,19 +10176,19 @@
         <v>20</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>3</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K136" t="s">
         <v>22</v>
@@ -9666,15 +10206,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="137" spans="1:18">
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B137" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C137" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D137" t="s">
         <v>2</v>
@@ -9683,19 +10223,19 @@
         <v>20</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>3</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K137" t="s">
         <v>22</v>
@@ -9713,15 +10253,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="138" spans="1:18">
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>1</v>
       </c>
       <c r="B138" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C138" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D138" t="s">
         <v>2</v>
@@ -9730,22 +10270,22 @@
         <v>20</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H138">
         <v>3</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K138" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L138">
         <v>100</v>
@@ -9760,15 +10300,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="139" spans="1:18">
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B139" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D139" t="s">
         <v>2</v>
@@ -9777,22 +10317,22 @@
         <v>20</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H139">
         <v>3</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K139" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L139">
         <v>50</v>
@@ -9807,15 +10347,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="140" spans="1:18">
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>1</v>
       </c>
       <c r="B140" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C140" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D140" t="s">
         <v>2</v>
@@ -9824,22 +10364,22 @@
         <v>20</v>
       </c>
       <c r="F140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H140">
         <v>3</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K140" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L140">
         <v>100</v>
@@ -9854,15 +10394,15 @@
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:18">
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C141" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -9871,22 +10411,22 @@
         <v>20</v>
       </c>
       <c r="F141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>3</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K141" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L141">
         <v>100</v>
@@ -9901,15 +10441,15 @@
         <v>275</v>
       </c>
     </row>
-    <row r="142" spans="1:18">
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>1</v>
       </c>
       <c r="B142" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C142" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -9918,19 +10458,19 @@
         <v>32</v>
       </c>
       <c r="F142" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>3</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K142" t="s">
         <v>22</v>
@@ -9947,19 +10487,16 @@
       <c r="O142">
         <v>300</v>
       </c>
-      <c r="R142" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18">
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>1</v>
       </c>
       <c r="B143" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -9968,19 +10505,19 @@
         <v>20</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>3</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K143" t="s">
         <v>22</v>
@@ -9997,19 +10534,16 @@
       <c r="O143">
         <v>300</v>
       </c>
-      <c r="R143" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18">
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
@@ -10018,22 +10552,22 @@
         <v>32</v>
       </c>
       <c r="F144" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H144">
         <v>3</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K144" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L144">
         <v>50</v>
@@ -10046,9 +10580,6 @@
       </c>
       <c r="O144">
         <v>300</v>
-      </c>
-      <c r="R144" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -10056,10 +10587,10 @@
         <v>1</v>
       </c>
       <c r="B145" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -10068,22 +10599,22 @@
         <v>20</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H145">
         <v>3</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K145" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L145">
         <v>50</v>
@@ -10097,19 +10628,16 @@
       <c r="O145">
         <v>300</v>
       </c>
-      <c r="R145" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="146" spans="1:18">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -10118,19 +10646,19 @@
         <v>32</v>
       </c>
       <c r="F146" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>3</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K146" t="s">
         <v>22</v>
@@ -10148,18 +10676,18 @@
         <v>325</v>
       </c>
       <c r="R146" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:18">
       <c r="A147" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B147" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D147" t="s">
         <v>2</v>
@@ -10168,19 +10696,19 @@
         <v>20</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>3</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K147" t="s">
         <v>22</v>
@@ -10198,18 +10726,18 @@
         <v>325</v>
       </c>
       <c r="R147" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:18">
       <c r="A148" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B148" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
         <v>2</v>
@@ -10218,19 +10746,19 @@
         <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>3</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K148" t="s">
         <v>22</v>
@@ -10253,13 +10781,13 @@
     </row>
     <row r="149" spans="1:18">
       <c r="A149" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B149" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
         <v>2</v>
@@ -10268,19 +10796,19 @@
         <v>20</v>
       </c>
       <c r="F149" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>3</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K149" t="s">
         <v>22</v>
@@ -10303,13 +10831,13 @@
     </row>
     <row r="150" spans="1:18">
       <c r="A150" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B150" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
@@ -10318,22 +10846,22 @@
         <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>3</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K150" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L150">
         <v>150</v>
@@ -10353,13 +10881,13 @@
     </row>
     <row r="151" spans="1:18">
       <c r="A151" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B151" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D151" t="s">
         <v>2</v>
@@ -10368,22 +10896,22 @@
         <v>20</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>3</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K151" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L151">
         <v>150</v>
@@ -10406,10 +10934,10 @@
         <v>1</v>
       </c>
       <c r="B152" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D152" t="s">
         <v>2</v>
@@ -10418,19 +10946,19 @@
         <v>21</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>3</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K152" t="s">
         <v>22</v>
@@ -10450,10 +10978,10 @@
     </row>
     <row r="153" spans="1:18">
       <c r="A153" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B153" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -10465,19 +10993,19 @@
         <v>21</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H153">
         <v>3</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K153" t="s">
         <v>22</v>
@@ -10497,7 +11025,7 @@
     </row>
     <row r="154" spans="1:18">
       <c r="A154" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -10512,19 +11040,19 @@
         <v>21</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>3</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K154" t="s">
         <v>22</v>
@@ -10541,16 +11069,19 @@
       <c r="O154">
         <v>325</v>
       </c>
+      <c r="P154">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="155" spans="1:18">
       <c r="A155" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D155" t="s">
         <v>2</v>
@@ -10559,19 +11090,19 @@
         <v>21</v>
       </c>
       <c r="F155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
         <v>3</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K155" t="s">
         <v>22</v>
@@ -10588,16 +11119,19 @@
       <c r="O155">
         <v>325</v>
       </c>
+      <c r="P155">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="156" spans="1:18">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D156" t="s">
         <v>2</v>
@@ -10606,19 +11140,19 @@
         <v>21</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>3</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K156" t="s">
         <v>22</v>
@@ -10635,16 +11169,19 @@
       <c r="O156">
         <v>325</v>
       </c>
+      <c r="P156">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="157" spans="1:18">
       <c r="A157" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D157" t="s">
         <v>2</v>
@@ -10653,19 +11190,19 @@
         <v>21</v>
       </c>
       <c r="F157" t="s">
-        <v>40</v>
-      </c>
-      <c r="G157" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
       </c>
       <c r="H157">
         <v>3</v>
       </c>
-      <c r="I157" s="5" t="s">
-        <v>36</v>
+      <c r="I157" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K157" t="s">
         <v>22</v>
@@ -10681,6 +11218,12 @@
       </c>
       <c r="O157">
         <v>325</v>
+      </c>
+      <c r="P157">
+        <v>0.84</v>
+      </c>
+      <c r="Q157">
+        <v>2200</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -10688,10 +11231,10 @@
         <v>1</v>
       </c>
       <c r="B158" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D158" t="s">
         <v>2</v>
@@ -10700,19 +11243,19 @@
         <v>21</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K158" t="s">
         <v>22</v>
@@ -10732,13 +11275,13 @@
     </row>
     <row r="159" spans="1:18">
       <c r="A159" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B159" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C159" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D159" t="s">
         <v>2</v>
@@ -10747,19 +11290,19 @@
         <v>21</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H159">
         <v>3</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K159" t="s">
         <v>22</v>
@@ -10782,10 +11325,10 @@
         <v>1</v>
       </c>
       <c r="B160" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D160" t="s">
         <v>2</v>
@@ -10794,19 +11337,19 @@
         <v>21</v>
       </c>
       <c r="F160" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>3</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K160" t="s">
         <v>22</v>
@@ -10824,15 +11367,15 @@
         <v>350</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:17">
       <c r="A161" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B161" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C161" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D161" t="s">
         <v>2</v>
@@ -10841,19 +11384,19 @@
         <v>21</v>
       </c>
       <c r="F161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>3</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K161" t="s">
         <v>22</v>
@@ -10871,15 +11414,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:17">
       <c r="A162" t="s">
         <v>1</v>
       </c>
       <c r="B162" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D162" t="s">
         <v>2</v>
@@ -10888,19 +11431,19 @@
         <v>21</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H162">
         <v>2</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K162" t="s">
         <v>22</v>
@@ -10918,15 +11461,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:17">
       <c r="A163" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B163" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D163" t="s">
         <v>2</v>
@@ -10935,19 +11478,19 @@
         <v>21</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K163" t="s">
         <v>22</v>
@@ -10965,15 +11508,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:17">
       <c r="A164" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B164" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D164" t="s">
         <v>2</v>
@@ -10982,19 +11525,19 @@
         <v>21</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>3</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K164" t="s">
         <v>22</v>
@@ -11012,15 +11555,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:17">
       <c r="A165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B165" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D165" t="s">
         <v>2</v>
@@ -11029,19 +11572,19 @@
         <v>21</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H165">
         <v>3</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K165" t="s">
         <v>22</v>
@@ -11059,9 +11602,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:17">
       <c r="A166" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -11079,16 +11622,16 @@
         <v>11</v>
       </c>
       <c r="G166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>3</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K166" t="s">
         <v>22</v>
@@ -11105,16 +11648,23 @@
       <c r="O166">
         <v>290</v>
       </c>
-    </row>
-    <row r="167" spans="1:15">
+      <c r="P166">
+        <v>0.8</v>
+      </c>
+      <c r="Q166">
+        <f>3600*2.20462</f>
+        <v>7936.6319999999996</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17">
       <c r="A167" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
       </c>
       <c r="C167" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D167" t="s">
         <v>2</v>
@@ -11126,16 +11676,16 @@
         <v>11</v>
       </c>
       <c r="G167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H167">
         <v>3</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K167" t="s">
         <v>22</v>
@@ -11152,16 +11702,23 @@
       <c r="O167">
         <v>290</v>
       </c>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="P167">
+        <v>0.8</v>
+      </c>
+      <c r="Q167">
+        <f>3600*2.20462</f>
+        <v>7936.6319999999996</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17">
       <c r="A168" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
       </c>
       <c r="C168" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
@@ -11173,16 +11730,16 @@
         <v>11</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>3</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K168" t="s">
         <v>22</v>
@@ -11199,16 +11756,23 @@
       <c r="O168">
         <v>290</v>
       </c>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="P168">
+        <v>0.8</v>
+      </c>
+      <c r="Q168">
+        <f>3600*2.20462</f>
+        <v>7936.6319999999996</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17">
       <c r="A169" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D169" t="s">
         <v>2</v>
@@ -11220,16 +11784,16 @@
         <v>11</v>
       </c>
       <c r="G169" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="H169">
         <v>3</v>
       </c>
-      <c r="I169" s="5" t="s">
-        <v>36</v>
+      <c r="I169" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K169" t="s">
         <v>22</v>
@@ -11246,10 +11810,17 @@
       <c r="O169">
         <v>290</v>
       </c>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="P169">
+        <v>0.8</v>
+      </c>
+      <c r="Q169">
+        <f>3600*2.20462</f>
+        <v>7936.6319999999996</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17">
       <c r="A170" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -11261,22 +11832,22 @@
         <v>2</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>3</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K170" t="s">
         <v>22</v>
@@ -11293,37 +11864,40 @@
       <c r="O170">
         <v>300</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="P170">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17">
       <c r="A171" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D171" t="s">
         <v>2</v>
       </c>
       <c r="E171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H171">
         <v>3</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K171" t="s">
         <v>22</v>
@@ -11340,37 +11914,40 @@
       <c r="O171">
         <v>300</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="P171">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D172" t="s">
         <v>2</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H172">
         <v>3</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K172" t="s">
         <v>22</v>
@@ -11387,37 +11964,40 @@
       <c r="O172">
         <v>300</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="P172">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17">
       <c r="A173" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>40</v>
-      </c>
-      <c r="G173" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
       </c>
       <c r="H173">
         <v>3</v>
       </c>
-      <c r="I173" s="5" t="s">
-        <v>36</v>
+      <c r="I173" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K173" t="s">
         <v>22</v>
@@ -11434,37 +12014,43 @@
       <c r="O173">
         <v>300</v>
       </c>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="P173">
+        <v>0.76</v>
+      </c>
+      <c r="Q173">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17">
       <c r="A174" t="s">
         <v>1</v>
       </c>
       <c r="B174" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C174" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D174" t="s">
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>3</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K174" t="s">
         <v>22</v>
@@ -11482,36 +12068,36 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:17">
       <c r="A175" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B175" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C175" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D175" t="s">
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H175">
         <v>3</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K175" t="s">
         <v>22</v>
@@ -11529,36 +12115,36 @@
         <v>300</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:17">
       <c r="A176" t="s">
         <v>1</v>
       </c>
       <c r="B176" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D176" t="s">
         <v>2</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K176" t="s">
         <v>22</v>
@@ -11578,34 +12164,34 @@
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B177" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C177" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D177" t="s">
         <v>2</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>3</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K177" t="s">
         <v>22</v>
@@ -11625,34 +12211,34 @@
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B178" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C178" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
       </c>
       <c r="E178" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F178" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>3</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K178" t="s">
         <v>22</v>
@@ -11668,271 +12254,808 @@
       </c>
       <c r="O178">
         <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
+      <c r="A179" t="s">
+        <v>93</v>
+      </c>
+      <c r="B179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
+      <c r="A180" t="s">
+        <v>93</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
+      <c r="A181" t="s">
+        <v>93</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
+      <c r="A182" t="s">
+        <v>93</v>
+      </c>
+      <c r="B182" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
+      <c r="A183" t="s">
+        <v>93</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
+      <c r="A184" t="s">
+        <v>93</v>
+      </c>
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
+      <c r="A185" t="s">
+        <v>93</v>
+      </c>
+      <c r="B185" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
+      <c r="A186" t="s">
+        <v>93</v>
+      </c>
+      <c r="B186" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
+      <c r="A187" t="s">
+        <v>93</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
+      <c r="A188" t="s">
+        <v>93</v>
+      </c>
+      <c r="B188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
+      <c r="A189" t="s">
+        <v>93</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
+      <c r="A190" t="s">
+        <v>93</v>
+      </c>
+      <c r="B190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
+      <c r="A191" t="s">
+        <v>93</v>
+      </c>
+      <c r="B191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
+      <c r="A192" t="s">
+        <v>93</v>
+      </c>
+      <c r="B192" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>93</v>
+      </c>
+      <c r="B193" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>93</v>
+      </c>
+      <c r="B195" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>93</v>
+      </c>
+      <c r="B196" t="s">
+        <v>10</v>
+      </c>
+      <c r="C196" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>93</v>
+      </c>
+      <c r="B197" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>93</v>
+      </c>
+      <c r="B198" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>93</v>
+      </c>
+      <c r="B199" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>93</v>
+      </c>
+      <c r="B200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>93</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>93</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>93</v>
+      </c>
+      <c r="B203" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>93</v>
+      </c>
+      <c r="B204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C204" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A11:B11 D11">
-    <cfRule type="expression" dxfId="51" priority="182">
+    <cfRule type="expression" dxfId="101" priority="232">
       <formula>COUNTIFS($A:$A,$A11,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D11,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13 D13">
-    <cfRule type="expression" dxfId="50" priority="180">
+    <cfRule type="expression" dxfId="100" priority="230">
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:F47 D48:D51 D58:F58 A59:F80 C81 B82 A83:F102 C103 A104:F110 A114:F160 A163:F165 A162:C162 E166:E174 A166:C169 A167:F770">
-    <cfRule type="expression" dxfId="49" priority="113">
+  <conditionalFormatting sqref="D58:F58 C81 B82 A83:F102 C103 A104:F110 A114:F160 A163:F165 A162:C162 E166:E174 A166:C169 A2:F47 D48:D51 A59:F80 A167:F770">
+    <cfRule type="expression" dxfId="99" priority="163">
       <formula>COUNTIFS($A:$A,$A2,$B:$B,$B2,$C:$C,$C2,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34 D50:F51 A46:F49 D52:I56 A50:C63 A146:F151 A110:F143 G110:H151 A179:Q246 A30:Q45 G46:Q47 D57:H58 A59:H80 I57:I80 A82:I82 A152:H178 A81:Q81 J82:Q178 G48:I56 J48:Q80 A83:H109 I83:I178">
-    <cfRule type="containsBlanks" dxfId="48" priority="101">
+  <conditionalFormatting sqref="B2:B34 D52:I56 A50:C63 A146:F151 A110:F143 G110:H151 G46:Q47 D57:H58 I57:I80 A82:I82 A152:H178 A81:Q81 G48:I56 J48:Q80 A83:H109 A30:Q45 A46:F49 D50:F51 A59:H80 J82:Q178 I83:I178 A179:Q246">
+    <cfRule type="containsBlanks" dxfId="98" priority="151">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D29 F18:F29">
-    <cfRule type="expression" dxfId="47" priority="151">
+    <cfRule type="expression" dxfId="97" priority="201">
       <formula>COUNTIFS($A:$A,$A18,$B:$B,#REF!,$C:$C,$B18,$D:$D,$D18,$E:$E,$E18,$F:$F,$F18)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:F10 A12:B12 D12:F12 E13:F13 D14:F16 D17 F17 E17:E29">
-    <cfRule type="expression" dxfId="46" priority="171">
+    <cfRule type="expression" dxfId="96" priority="221">
       <formula>COUNTIFS($A:$A,$A2,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:B29 D13:G13 D14:Q29 K13:Q13 I6:I43 D2:Q12 J12:J43">
-    <cfRule type="containsBlanks" dxfId="45" priority="114">
+  <conditionalFormatting sqref="A2:B29 D13:G13 K13:Q13 I6:I43 D2:Q12 J12:J43 P31:P37 P63:P69 D14:Q29">
+    <cfRule type="containsBlanks" dxfId="95" priority="164">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="44" priority="184">
+    <cfRule type="expression" dxfId="94" priority="234">
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D50:F51 A46:F49 D52:I56 A50:C63 A146:F151 A110:F143 G110:H151 A179:R770 G46:R47 A59:H80 D57:H58 A82:I82 A152:H178 A81:R81 J82:R178 A2:R45 G48:I51 I48:R80 A83:H109 I83:I178">
-    <cfRule type="containsText" dxfId="43" priority="100" operator="containsText" text="itv">
+  <conditionalFormatting sqref="D52:I56 A50:C63 A146:F151 A110:F143 G110:H151 D57:H58 A82:I82 A152:H178 A81:R81 G48:I51 A83:H109 G46:R47 I48:R80 A46:F49 D50:F51 A59:H80 A2:R45 J82:R178 I83:I178 A179:R770">
+    <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46">
-    <cfRule type="containsBlanks" dxfId="42" priority="99">
+    <cfRule type="containsBlanks" dxfId="92" priority="149">
       <formula>LEN(TRIM(B46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53 A52:C80 C81 B82 C152 B153">
-    <cfRule type="expression" dxfId="41" priority="193">
+    <cfRule type="expression" dxfId="91" priority="243">
       <formula>COUNTIFS($A:$A,$A52,$B:$B,$B52,$C:$C,$C52,$D:$D,#REF!,$E:$E,$E52,$F:$F,$F52)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48 E53:F53">
-    <cfRule type="expression" dxfId="40" priority="202">
+    <cfRule type="expression" dxfId="90" priority="252">
       <formula>COUNTIFS($A:$A,$A48,$B:$B,$B48,$C:$C,$C48,$D:$D,$D52,$E:$E,$E48,$F:$F,$F48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="expression" dxfId="39" priority="246">
+    <cfRule type="expression" dxfId="89" priority="296">
       <formula>COUNTIFS($A:$A,$A48,$B:$B,$B48,$C:$C,$C48,$D:$D,$D52,$E:$E,$E48,$F:$F,$F48)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49:F50">
-    <cfRule type="expression" dxfId="38" priority="273">
+    <cfRule type="expression" dxfId="88" priority="323">
       <formula>COUNTIFS($A:$A,$A49,$B:$B,$B49,$C:$C,$C49,$D:$D,$D54,$E:$E,$E49,$F:$F,$F49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:F52">
-    <cfRule type="expression" dxfId="37" priority="274">
+    <cfRule type="expression" dxfId="87" priority="324">
       <formula>COUNTIFS($A:$A,$A52,$B:$B,$B52,$C:$C,$C52,$D:$D,$D55,$E:$E,$E52,$F:$F,$F52)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D56">
-    <cfRule type="expression" dxfId="36" priority="276">
+    <cfRule type="expression" dxfId="86" priority="326">
       <formula>COUNTIFS($A:$A,$A49,$B:$B,$B49,$C:$C,$C49,$D:$D,$D54,$E:$E,$E49,$F:$F,$F49)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51:F51">
-    <cfRule type="expression" dxfId="35" priority="304">
+    <cfRule type="expression" dxfId="85" priority="354">
       <formula>COUNTIFS($A:$A,$A51,$B:$B,$B51,$C:$C,$C51,$D:$D,$D57,$E:$E,$E51,$F:$F,$F51)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="expression" dxfId="34" priority="308">
+    <cfRule type="expression" dxfId="84" priority="358">
       <formula>COUNTIFS($A:$A,$A51,$B:$B,$B51,$C:$C,$C51,$D:$D,$D57,$E:$E,$E51,$F:$F,$F51)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82 C82:G82 G85 G88 G91 G93 G96 G99 G102:G103 A153 C153">
-    <cfRule type="expression" dxfId="33" priority="317">
+    <cfRule type="expression" dxfId="83" priority="367">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A82,$C:$C,$C82,$D:$D,$D82,$E:$E,$E82,$F:$F,$F82)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B81 B152">
-    <cfRule type="expression" dxfId="32" priority="373">
+    <cfRule type="expression" dxfId="82" priority="423">
       <formula>COUNTIFS($A:$A,$A81,$B:$B,#REF!,$C:$C,$B81,$D:$D,#REF!,$E:$E,$E81,$F:$F,$F81)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:B81 D81:G81 A152:B152">
-    <cfRule type="expression" dxfId="31" priority="383">
+    <cfRule type="expression" dxfId="81" priority="433">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A81,$C:$C,$B81,$D:$D,$D81,$E:$E,$E81,$F:$F,$F81)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81 A152">
-    <cfRule type="expression" dxfId="30" priority="387">
+    <cfRule type="expression" dxfId="80" priority="437">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A81,$C:$C,$B81,$D:$D,#REF!,$E:$E,$E81,$F:$F,$F81)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A103:B103 D103:F103 D105:F107 E109:F109 D110:F110 E119:F119 E121:F121 E124:F124 E129:F129 E126:F126 E131:F131 E133:F133 E138:F138 E135:F135 E140:F140 E142:F142 E146:F146 E144:F144 E148:F148 E150:F150">
-    <cfRule type="expression" dxfId="29" priority="399">
+    <cfRule type="expression" dxfId="79" priority="449">
       <formula>COUNTIFS($A:$A,$A103,$B:$B,#REF!,$C:$C,$B103,$D:$D,$D103,$E:$E,$E103,$F:$F,$F103)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G104:G132 G135:G141 G165:G167 G144:G162 G169:G178">
-    <cfRule type="expression" dxfId="28" priority="451">
+    <cfRule type="expression" dxfId="78" priority="501">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A102,$C:$C,$C102,$D:$D,$D102,$E:$E,$E102,$F:$F,$F102)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:F113 E114:F116 E120:F120 E125:F125 E130:F130 E133:F140">
-    <cfRule type="expression" dxfId="27" priority="465">
+    <cfRule type="expression" dxfId="77" priority="515">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,$B112,$C:$C,$C112,$D:$D,$D111,$E:$E,$E111,$F:$F,$F111)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A112:C113">
-    <cfRule type="expression" dxfId="26" priority="466">
+    <cfRule type="expression" dxfId="76" priority="516">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,$B112,$C:$C,$C112,$D:$D,$D111,$E:$E,$E111,$F:$F,$F111)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A111:C111">
-    <cfRule type="expression" dxfId="25" priority="467">
+    <cfRule type="expression" dxfId="75" priority="517">
       <formula>COUNTIFS($A:$A,$A111,$B:$B,$B111,$C:$C,$C111,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:F111 E112:F116 E120:F120 E125:F125 E130:F130 E133:F140">
-    <cfRule type="expression" dxfId="24" priority="515">
+    <cfRule type="expression" dxfId="74" priority="565">
       <formula>COUNTIFS($A:$A,$A112,$B:$B,#REF!,$C:$C,$B112,$D:$D,$D111,$E:$E,$E111,$F:$F,$F111)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117:F118">
-    <cfRule type="expression" dxfId="23" priority="592">
+    <cfRule type="expression" dxfId="73" priority="642">
       <formula>COUNTIFS($A:$A,$A119,$B:$B,$B119,$C:$C,$C119,$D:$D,$D117,$E:$E,$E117,$F:$F,$F117)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117:F118">
-    <cfRule type="expression" dxfId="22" priority="594">
+    <cfRule type="expression" dxfId="72" priority="644">
       <formula>COUNTIFS($A:$A,$A119,$B:$B,#REF!,$C:$C,$B119,$D:$D,$D117,$E:$E,$E117,$F:$F,$F117)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161:F161 E122:F123 E127:F128 E132:F132 E136:F137 E141:F141 E143:F143 E147:F147 E145:F145 E149:F149 E151:F151">
-    <cfRule type="expression" dxfId="21" priority="598">
+    <cfRule type="expression" dxfId="71" priority="648">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D122,$E:$E,$E122,$F:$F,$F122)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143:F143 E145:F145">
-    <cfRule type="expression" dxfId="20" priority="730">
+    <cfRule type="expression" dxfId="70" priority="780">
       <formula>COUNTIFS($A:$A,$A146,$B:$B,$B146,$C:$C,$C146,$D:$D,$D143,$E:$E,$E143,$F:$F,$F143)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E143:F143 E145:F145">
-    <cfRule type="expression" dxfId="19" priority="731">
+    <cfRule type="expression" dxfId="69" priority="781">
       <formula>COUNTIFS($A:$A,$A146,$B:$B,#REF!,$C:$C,$B146,$D:$D,$D143,$E:$E,$E143,$F:$F,$F143)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:F145">
-    <cfRule type="containsBlanks" dxfId="18" priority="23">
+    <cfRule type="containsBlanks" dxfId="68" priority="73">
       <formula>LEN(TRIM(A144))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A144:F145">
-    <cfRule type="containsText" dxfId="17" priority="22" operator="containsText" text="itv">
+    <cfRule type="containsText" dxfId="67" priority="72" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A144)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G142 G133">
-    <cfRule type="expression" dxfId="16" priority="810">
+    <cfRule type="expression" dxfId="66" priority="860">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A132,$C:$C,$C132,$D:$D,$D132,$E:$E,$E132,$F:$F,$F132)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G143 G134">
-    <cfRule type="expression" dxfId="15" priority="812">
+    <cfRule type="expression" dxfId="65" priority="862">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,#REF!,$E:$E,#REF!,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A161:C161">
-    <cfRule type="expression" dxfId="14" priority="827">
+    <cfRule type="expression" dxfId="64" priority="877">
       <formula>COUNTIFS($A:$A,$A161,$B:$B,$B161,$C:$C,$C161,$D:$D,$D162,$E:$E,$E162,$F:$F,$F162)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162:F162">
-    <cfRule type="expression" dxfId="13" priority="828">
+    <cfRule type="expression" dxfId="63" priority="878">
       <formula>COUNTIFS($A:$A,$A161,$B:$B,$B161,$C:$C,$C161,$D:$D,$D162,$E:$E,$E162,$F:$F,$F162)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G164">
-    <cfRule type="expression" dxfId="12" priority="893">
+    <cfRule type="expression" dxfId="62" priority="943">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A161,$C:$C,$C161,$D:$D,$D162,$E:$E,$E162,$F:$F,$F162)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G163">
-    <cfRule type="expression" dxfId="11" priority="894">
+    <cfRule type="expression" dxfId="61" priority="944">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D161,$E:$E,$E161,$F:$F,$F161)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A166:D166 F166:F178">
-    <cfRule type="expression" dxfId="10" priority="910">
+    <cfRule type="expression" dxfId="60" priority="960">
       <formula>COUNTIFS($A:$A,$A166,$B:$B,$B166,$C:$C,$C166,$D:$D,$D166,$E:$E,$F166,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G168">
-    <cfRule type="expression" dxfId="9" priority="982">
+    <cfRule type="expression" dxfId="59" priority="1032">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A166,$C:$C,$C166,$D:$D,$D166,$E:$E,$F166,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A170:C170">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="58" priority="59">
       <formula>COUNTIFS($A:$A,$A170,$B:$B,$B170,$C:$C,$C170,$D:$D,$D170,$E:$E,$F170,$F:$F,#REF!)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="containsBlanks" dxfId="7" priority="8">
+    <cfRule type="containsBlanks" dxfId="57" priority="58">
       <formula>LEN(TRIM(J44))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="56" priority="57">
       <formula>LEN(TRIM(J45))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46 I48 I50 I52 I54 I56:I57 I59 I70 I61 I72 I63 I74 I65 I76 I67:I68 I78:I79">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="55" priority="56">
       <formula>LEN(TRIM(I46))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47 I49 I51 I53 I55 I58 I69 I80 I60 I71 I62 I73 I64 I75 I66 I77">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="54" priority="55">
       <formula>LEN(TRIM(I47))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81:J178">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="53" priority="54">
       <formula>COUNTIFS($A:$A,#REF!,$B:$B,$A81,$C:$C,$B81,$D:$D,$D81,$E:$E,$E81,$F:$F,$F81)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J81 J84 J87 J90 J93 J96 J99 J102 J105 J108 J111 J114 J117 J120 J123 J126 J129 J132 J135 J138 J141 J144 J147 J150 J153 J156 J159 J162 J165 J168 J171 J174 J177">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="52" priority="53">
       <formula>LEN(TRIM(J81))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82 J85 J88 J91 J94 J97 J100 J103 J106 J109 J112 J115 J118 J121 J124 J127 J130 J133 J136 J139 J142 J145 J148 J151 J154 J157 J160 J163 J166 J169 J172 J175 J178">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="51" priority="52">
       <formula>LEN(TRIM(J82))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83 J86 J89 J92 J95 J98 J101 J104 J107 J110 J113 J116 J119 J122 J125 J128 J131 J134 J137 J140 J143 J146 J149 J152 J155 J158 J161 J164 J167 J170 J173 J176">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="50" priority="51">
       <formula>LEN(TRIM(J83))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P42">
+    <cfRule type="containsBlanks" dxfId="49" priority="50">
+      <formula>LEN(TRIM(P42))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="containsBlanks" dxfId="48" priority="49">
+      <formula>LEN(TRIM(P43))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P85">
+    <cfRule type="containsBlanks" dxfId="47" priority="48">
+      <formula>LEN(TRIM(P85))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P86">
+    <cfRule type="containsBlanks" dxfId="46" priority="47">
+      <formula>LEN(TRIM(P86))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P87">
+    <cfRule type="containsBlanks" dxfId="45" priority="46">
+      <formula>LEN(TRIM(P87))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P88">
+    <cfRule type="containsBlanks" dxfId="44" priority="45">
+      <formula>LEN(TRIM(P88))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P46">
+    <cfRule type="containsBlanks" dxfId="43" priority="44">
+      <formula>LEN(TRIM(P46))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P47">
+    <cfRule type="containsBlanks" dxfId="42" priority="43">
+      <formula>LEN(TRIM(P47))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P48">
+    <cfRule type="containsBlanks" dxfId="41" priority="42">
+      <formula>LEN(TRIM(P48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P58">
+    <cfRule type="containsBlanks" dxfId="40" priority="41">
+      <formula>LEN(TRIM(P58))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P57">
+    <cfRule type="containsBlanks" dxfId="39" priority="40">
+      <formula>LEN(TRIM(P57))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P56">
+    <cfRule type="containsBlanks" dxfId="38" priority="39">
+      <formula>LEN(TRIM(P56))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P55">
+    <cfRule type="containsBlanks" dxfId="37" priority="38">
+      <formula>LEN(TRIM(P55))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P54">
+    <cfRule type="containsBlanks" dxfId="36" priority="37">
+      <formula>LEN(TRIM(P54))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P53">
+    <cfRule type="containsBlanks" dxfId="35" priority="36">
+      <formula>LEN(TRIM(P53))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P52">
+    <cfRule type="containsBlanks" dxfId="34" priority="35">
+      <formula>LEN(TRIM(P52))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P51">
+    <cfRule type="containsBlanks" dxfId="33" priority="34">
+      <formula>LEN(TRIM(P51))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P50">
+    <cfRule type="containsBlanks" dxfId="32" priority="33">
+      <formula>LEN(TRIM(P50))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P49">
+    <cfRule type="containsBlanks" dxfId="31" priority="32">
+      <formula>LEN(TRIM(P49))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P114">
+    <cfRule type="containsBlanks" dxfId="30" priority="31">
+      <formula>LEN(TRIM(P114))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P123">
+    <cfRule type="containsBlanks" dxfId="29" priority="30">
+      <formula>LEN(TRIM(P123))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P122">
+    <cfRule type="containsBlanks" dxfId="28" priority="29">
+      <formula>LEN(TRIM(P122))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P121">
+    <cfRule type="containsBlanks" dxfId="27" priority="28">
+      <formula>LEN(TRIM(P121))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P120">
+    <cfRule type="containsBlanks" dxfId="26" priority="27">
+      <formula>LEN(TRIM(P120))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P119">
+    <cfRule type="containsBlanks" dxfId="25" priority="26">
+      <formula>LEN(TRIM(P119))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P118">
+    <cfRule type="containsBlanks" dxfId="24" priority="25">
+      <formula>LEN(TRIM(P118))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P117">
+    <cfRule type="containsBlanks" dxfId="23" priority="24">
+      <formula>LEN(TRIM(P117))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P116">
+    <cfRule type="containsBlanks" dxfId="22" priority="23">
+      <formula>LEN(TRIM(P116))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P115">
+    <cfRule type="containsBlanks" dxfId="21" priority="22">
+      <formula>LEN(TRIM(P115))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P93">
+    <cfRule type="containsBlanks" dxfId="20" priority="21">
+      <formula>LEN(TRIM(P93))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P94">
+    <cfRule type="containsBlanks" dxfId="19" priority="20">
+      <formula>LEN(TRIM(P94))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P95">
+    <cfRule type="containsBlanks" dxfId="18" priority="19">
+      <formula>LEN(TRIM(P95))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P96">
+    <cfRule type="containsBlanks" dxfId="17" priority="18">
+      <formula>LEN(TRIM(P96))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P31">
+    <cfRule type="containsBlanks" dxfId="16" priority="17">
+      <formula>LEN(TRIM(P31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P154">
+    <cfRule type="containsBlanks" dxfId="15" priority="16">
+      <formula>LEN(TRIM(P154))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P155">
+    <cfRule type="containsBlanks" dxfId="14" priority="15">
+      <formula>LEN(TRIM(P155))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P156">
+    <cfRule type="containsBlanks" dxfId="13" priority="14">
+      <formula>LEN(TRIM(P156))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P157">
+    <cfRule type="containsBlanks" dxfId="12" priority="13">
+      <formula>LEN(TRIM(P157))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39">
+    <cfRule type="containsBlanks" dxfId="11" priority="12">
+      <formula>LEN(TRIM(P39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P170">
+    <cfRule type="containsBlanks" dxfId="10" priority="11">
+      <formula>LEN(TRIM(P170))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P171">
+    <cfRule type="containsBlanks" dxfId="9" priority="10">
+      <formula>LEN(TRIM(P171))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P172">
+    <cfRule type="containsBlanks" dxfId="8" priority="9">
+      <formula>LEN(TRIM(P172))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P173">
+    <cfRule type="containsBlanks" dxfId="7" priority="8">
+      <formula>LEN(TRIM(P173))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>COUNTIFS($A:$A,$A39,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D39,$E:$E,$E39,$F:$F,$F39)&gt;1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
+      <formula>LEN(TRIM(D39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(P38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P166">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(P166))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P167">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(P167))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P168">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(P168))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P169">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(P169))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Database/AAR_matrix.xlsx
+++ b/Database/AAR_matrix.xlsx
@@ -3267,8 +3267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6412,6 +6412,9 @@
       <c r="O58">
         <v>325</v>
       </c>
+      <c r="P58">
+        <v>0.85</v>
+      </c>
       <c r="Q58">
         <f t="shared" si="4"/>
         <v>2425.0819999999999</v>
@@ -6463,6 +6466,9 @@
       <c r="O59">
         <v>325</v>
       </c>
+      <c r="P59">
+        <v>0.85</v>
+      </c>
       <c r="Q59">
         <f t="shared" si="4"/>
         <v>2425.0819999999999</v>
@@ -6514,6 +6520,9 @@
       <c r="O60">
         <v>325</v>
       </c>
+      <c r="P60">
+        <v>0.85</v>
+      </c>
       <c r="Q60">
         <f t="shared" si="4"/>
         <v>2425.0819999999999</v>
@@ -6565,6 +6574,9 @@
       <c r="O61">
         <v>325</v>
       </c>
+      <c r="P61">
+        <v>0.85</v>
+      </c>
       <c r="Q61">
         <f t="shared" si="4"/>
         <v>2425.0819999999999</v>
@@ -6616,6 +6628,9 @@
       <c r="O62">
         <v>300</v>
       </c>
+      <c r="P62">
+        <v>0.86</v>
+      </c>
       <c r="Q62">
         <f>900*2.20462</f>
         <v>1984.1579999999999</v>
@@ -6667,6 +6682,9 @@
       <c r="O63">
         <v>300</v>
       </c>
+      <c r="P63">
+        <v>0.86</v>
+      </c>
       <c r="Q63">
         <f t="shared" ref="Q63:Q67" si="5">900*2.20462</f>
         <v>1984.1579999999999</v>
@@ -6718,6 +6736,9 @@
       <c r="O64">
         <v>300</v>
       </c>
+      <c r="P64">
+        <v>0.86</v>
+      </c>
       <c r="Q64">
         <f t="shared" si="5"/>
         <v>1984.1579999999999</v>
@@ -6769,6 +6790,9 @@
       <c r="O65">
         <v>300</v>
       </c>
+      <c r="P65">
+        <v>0.86</v>
+      </c>
       <c r="Q65">
         <f t="shared" si="5"/>
         <v>1984.1579999999999</v>
@@ -6820,6 +6844,9 @@
       <c r="O66">
         <v>300</v>
       </c>
+      <c r="P66">
+        <v>0.86</v>
+      </c>
       <c r="Q66">
         <f t="shared" si="5"/>
         <v>1984.1579999999999</v>
@@ -6871,6 +6898,9 @@
       <c r="O67">
         <v>300</v>
       </c>
+      <c r="P67">
+        <v>0.86</v>
+      </c>
       <c r="Q67">
         <f t="shared" si="5"/>
         <v>1984.1579999999999</v>
@@ -6922,6 +6952,9 @@
       <c r="O68">
         <v>325</v>
       </c>
+      <c r="P68">
+        <v>0.86</v>
+      </c>
       <c r="Q68">
         <f>890*2.20462</f>
         <v>1962.1117999999999</v>
@@ -6973,6 +7006,9 @@
       <c r="O69">
         <v>325</v>
       </c>
+      <c r="P69">
+        <v>0.86</v>
+      </c>
       <c r="Q69">
         <f t="shared" ref="Q69:Q71" si="6">890*2.20462</f>
         <v>1962.1117999999999</v>
@@ -7024,6 +7060,9 @@
       <c r="O70">
         <v>325</v>
       </c>
+      <c r="P70">
+        <v>0.86</v>
+      </c>
       <c r="Q70">
         <f t="shared" si="6"/>
         <v>1962.1117999999999</v>
@@ -7075,6 +7114,9 @@
       <c r="O71">
         <v>325</v>
       </c>
+      <c r="P71">
+        <v>0.86</v>
+      </c>
       <c r="Q71">
         <f t="shared" si="6"/>
         <v>1962.1117999999999</v>
@@ -7126,6 +7168,9 @@
       <c r="O72">
         <v>325</v>
       </c>
+      <c r="P72">
+        <v>0.86</v>
+      </c>
       <c r="Q72">
         <f>1100*2.20462</f>
         <v>2425.0819999999999</v>
@@ -7177,6 +7222,9 @@
       <c r="O73">
         <v>325</v>
       </c>
+      <c r="P73">
+        <v>0.86</v>
+      </c>
       <c r="Q73">
         <f t="shared" ref="Q73:Q76" si="7">1100*2.20462</f>
         <v>2425.0819999999999</v>
@@ -7228,6 +7276,9 @@
       <c r="O74">
         <v>325</v>
       </c>
+      <c r="P74">
+        <v>0.86</v>
+      </c>
       <c r="Q74">
         <f t="shared" si="7"/>
         <v>2425.0819999999999</v>
@@ -7279,6 +7330,9 @@
       <c r="O75">
         <v>325</v>
       </c>
+      <c r="P75">
+        <v>0.86</v>
+      </c>
       <c r="Q75">
         <f t="shared" si="7"/>
         <v>2425.0819999999999</v>
@@ -7330,6 +7384,9 @@
       <c r="O76">
         <v>325</v>
       </c>
+      <c r="P76">
+        <v>0.86</v>
+      </c>
       <c r="Q76">
         <f t="shared" si="7"/>
         <v>2425.0819999999999</v>
@@ -7381,6 +7438,9 @@
       <c r="O77">
         <v>300</v>
       </c>
+      <c r="P77">
+        <v>0.86</v>
+      </c>
       <c r="Q77">
         <f>900*2.20462</f>
         <v>1984.1579999999999</v>
@@ -7431,6 +7491,9 @@
       </c>
       <c r="O78">
         <v>300</v>
+      </c>
+      <c r="P78">
+        <v>0.86</v>
       </c>
       <c r="Q78">
         <f>900*2.20462</f>
@@ -14601,7 +14664,7 @@
       <formula>COUNTIFS($A:$A,$A2,$B:$B,$B2,$C:$C,$C2,$D:$D,$D2,$E:$E,$E2,$F:$F,$F2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B34 D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 G45:Q46 D56:H57 A79:I79 G47:I55 A45:F48 D49:F50 A171:Q242 I56:I78 A58:H78 A80:H102 A30:Q44 A145:H170 J47:Q170 I80:I170">
+  <conditionalFormatting sqref="B2:B34 D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 G45:Q46 D56:H57 A79:I79 G47:I55 A45:F48 D49:F50 A171:Q242 I56:I78 A58:H78 A80:H102 A30:Q44 A145:H170 I80:I170 J47:Q170">
     <cfRule type="containsBlanks" dxfId="98" priority="151">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
@@ -14626,7 +14689,7 @@
       <formula>COUNTIFS($A:$A,$A13,$B:$B,#REF!,$C:$C,#REF!,$D:$D,$D13,$E:$E,$E11,$F:$F,$F11)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 D56:H57 A79:I79 G47:I50 G45:R46 A45:F48 D49:F50 A171:R766 I47:R78 A58:H78 A80:H102 A2:R44 A145:H170 J79:R170 I80:I170">
+  <conditionalFormatting sqref="D51:I55 A49:C62 A139:F144 A103:F136 G103:H144 D56:H57 A79:I79 G47:I50 G45:R46 A45:F48 D49:F50 A171:R766 A58:H78 A80:H102 A2:R44 A145:H170 J79:R170 I80:I170 I47:R78">
     <cfRule type="containsText" dxfId="93" priority="150" operator="containsText" text="itv">
       <formula>NOT(ISERROR(SEARCH("itv",A2)))</formula>
     </cfRule>
